--- a/tut06/output/2001EE06.xlsx
+++ b/tut06/output/2001EE06.xlsx
@@ -515,7 +515,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -581,16 +581,16 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -603,7 +603,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -691,16 +691,16 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
